--- a/Lists/fastek.xlsx
+++ b/Lists/fastek.xlsx
@@ -688,8 +688,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -974,7 +974,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
